--- a/figures/contact-placement.xlsx
+++ b/figures/contact-placement.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akashlevy/Documents/NEM-Relay-CAD/demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akashlevy/Documents/NEM-Relay-CAD/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327B96FA-9BB7-1043-882E-A44B3C6C73A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F88D05-05B4-F74F-BFE2-F23A535B775B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="1360" windowWidth="28040" windowHeight="17040" xr2:uid="{7CD5599E-4023-9243-B236-7EE00687D2DB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7CD5599E-4023-9243-B236-7EE00687D2DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -95,6 +94,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCDCDCD"/>
+      <color rgb="FF737675"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -433,10 +438,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:srgbClr val="CDCDCD"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -467,7 +469,27 @@
                     <a:latin typeface="+mn-lt"/>
                     <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>Std. of R</a:t>
+                  <a:t>Standard</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> Deviation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> of R</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600" b="1" baseline="-25000">
@@ -590,7 +612,25 @@
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t>Std. of F</a:t>
+                  <a:t>Standard</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t> Deviation </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t> of F</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600" b="1" baseline="-25000">
@@ -617,8 +657,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.88749606299212602"/>
-              <c:y val="6.5395065616797907E-2"/>
+              <c:x val="0.85820809248554908"/>
+              <c:y val="7.0728398950131235E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -659,7 +699,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -701,7 +741,9 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1315,7 +1357,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
+      <xdr:colOff>673100</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -1344,14 +1386,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -1368,7 +1410,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8280400" y="2933700"/>
+          <a:off x="8521700" y="2933700"/>
           <a:ext cx="0" cy="1168400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1402,10 +1444,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
@@ -1426,8 +1468,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8280400" y="4102100"/>
-          <a:ext cx="1892300" cy="12700"/>
+          <a:off x="8521700" y="4114800"/>
+          <a:ext cx="1651000" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1461,11 +1503,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>429597</xdr:colOff>
+      <xdr:colOff>392713</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1516184" cy="530658"/>
+    <xdr:ext cx="1691553" cy="530658"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="TextBox 10">
@@ -1479,8 +1521,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8887797" y="2692400"/>
-          <a:ext cx="1516184" cy="530658"/>
+          <a:off x="8850913" y="2692400"/>
+          <a:ext cx="1691553" cy="530658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1525,7 +1567,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>in std(R</a:t>
+            <a:t>in stdev(R</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="1" baseline="-25000">
@@ -1851,7 +1893,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
